--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Kng1-Bdkrb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Kng1-Bdkrb1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5843663333333332</v>
+        <v>0.1687306666666667</v>
       </c>
       <c r="N2">
-        <v>1.753099</v>
+        <v>0.506192</v>
       </c>
       <c r="O2">
-        <v>0.176451825634778</v>
+        <v>0.05883914643530498</v>
       </c>
       <c r="P2">
-        <v>0.176451825634778</v>
+        <v>0.05883914643530497</v>
       </c>
       <c r="Q2">
-        <v>0.2652294643304444</v>
+        <v>0.07658268757688889</v>
       </c>
       <c r="R2">
-        <v>2.387065178974</v>
+        <v>0.689244188192</v>
       </c>
       <c r="S2">
-        <v>0.176451825634778</v>
+        <v>0.05883914643530498</v>
       </c>
       <c r="T2">
-        <v>0.176451825634778</v>
+        <v>0.05883914643530497</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>3.333018</v>
       </c>
       <c r="O3">
-        <v>0.3354728460706307</v>
+        <v>0.3874259849494012</v>
       </c>
       <c r="P3">
-        <v>0.3354728460706307</v>
+        <v>0.3874259849494012</v>
       </c>
       <c r="Q3">
         <v>0.5042582185853334</v>
@@ -632,10 +632,10 @@
         <v>4.538323967268</v>
       </c>
       <c r="S3">
-        <v>0.3354728460706307</v>
+        <v>0.3874259849494012</v>
       </c>
       <c r="T3">
-        <v>0.3354728460706307</v>
+        <v>0.3874259849494012</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.616389</v>
+        <v>1.587923333333333</v>
       </c>
       <c r="N4">
-        <v>4.849167</v>
+        <v>4.76377</v>
       </c>
       <c r="O4">
-        <v>0.4880753282945913</v>
+        <v>0.5537348686152938</v>
       </c>
       <c r="P4">
-        <v>0.4880753282945913</v>
+        <v>0.5537348686152938</v>
       </c>
       <c r="Q4">
-        <v>0.7336390961713333</v>
+        <v>0.7207192322244445</v>
       </c>
       <c r="R4">
-        <v>6.602751865541999</v>
+        <v>6.48647309002</v>
       </c>
       <c r="S4">
-        <v>0.4880753282945913</v>
+        <v>0.5537348686152938</v>
       </c>
       <c r="T4">
-        <v>0.4880753282945913</v>
+        <v>0.5537348686152938</v>
       </c>
     </row>
   </sheetData>
